--- a/datakomponen.xlsx
+++ b/datakomponen.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E4B0C-E688-4D27-B1D3-E4D02A3B3D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B19DB9-94F7-41F1-9293-9288999B5934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261A6836-0E51-45CD-8214-7DA064A0365B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{261A6836-0E51-45CD-8214-7DA064A0365B}"/>
   </bookViews>
   <sheets>
     <sheet name="processor" sheetId="1" r:id="rId1"/>
+    <sheet name="ram" sheetId="2" r:id="rId2"/>
+    <sheet name="motherboard" sheetId="3" r:id="rId3"/>
+    <sheet name="gpu" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>NO</t>
   </si>
@@ -97,6 +100,126 @@
   </si>
   <si>
     <t>Ryzen 5 7600X</t>
+  </si>
+  <si>
+    <t>Merk RAM</t>
+  </si>
+  <si>
+    <t>Gambar</t>
+  </si>
+  <si>
+    <t>harga</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance LPX DDR4, 2 x 16GB, 3200MHz</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance LPX DDR4, 2 x 8GB, 3200MHz</t>
+  </si>
+  <si>
+    <t>Kingston HyperX Fury DDR4, 8GB, 3200MHz</t>
+  </si>
+  <si>
+    <t>G.Skill Ripjaw+G6s V DDR4, 8GB, 3200MHz</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance DDR5, 2x16GB, 4800MHz</t>
+  </si>
+  <si>
+    <t>G.Skill Trident Z5 DDR5, 2x32GB, 6000MHz</t>
+  </si>
+  <si>
+    <t>Kingston FURY Beast DDR5, 2x16GB, 4800MHz</t>
+  </si>
+  <si>
+    <t>Kingston FURY Beast DDR5, 2x8GB, 5200MHz</t>
+  </si>
+  <si>
+    <t>Brand &amp; Model Motherboard</t>
+  </si>
+  <si>
+    <t>ASUS ROG Crosshair VIII Hero (Wi-Fi)</t>
+  </si>
+  <si>
+    <t>MSI MPG Z490 Gaming Edge WiFi</t>
+  </si>
+  <si>
+    <t>Gigabyte Z590 AORUS Master</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming B550-PLUS (Wi-Fi)</t>
+  </si>
+  <si>
+    <t>MSI MAG B550 TOMAHAWK MAX</t>
+  </si>
+  <si>
+    <t>ASUS ROG Strix Z690-E Gaming WiFi</t>
+  </si>
+  <si>
+    <t>ASUS ROG Strix B550-F Gaming (Wi-Fi)</t>
+  </si>
+  <si>
+    <t>Gigabyte Z690 AORUS Pro</t>
+  </si>
+  <si>
+    <t>ASRock B550 Steel Legend</t>
+  </si>
+  <si>
+    <t>MSI Z690 Unify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Brand &amp; Model GPU</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3090</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3080</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3070</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3060 Ti</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6900 XT</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6800 XT</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6800</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6700 XT</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 4080</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 4070 Ti</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 4060 Ti</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7600 XT</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7800 XT</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7900 XTX</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7900 XT</t>
   </si>
 </sst>
 </file>
@@ -104,7 +227,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -139,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,29 +285,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -995,6 +1152,1874 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1050791</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1085851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A44EF90-FDC0-A7DC-4FE7-114D77B19B40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3665220" y="220981"/>
+          <a:ext cx="1039361" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3008</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1082040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B296F508-5D69-4EE6-F8D6-94F75674596A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3665221" y="1325881"/>
+          <a:ext cx="1046947" cy="1051559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1043940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1048396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64B1985-1E9D-5C26-4B17-C365F66D2378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3817620" y="2468880"/>
+          <a:ext cx="998220" cy="985531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>934328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6DA4FF-310F-9D35-3123-7921BA4551F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="3528062"/>
+          <a:ext cx="1005840" cy="907656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1045346</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>893808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E060910-72C4-2788-DEAA-00A59EAD9500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3791858" y="4526644"/>
+          <a:ext cx="1010511" cy="857975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1050834</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1086087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC0B97A-EDF3-8352-7D2C-3968049C2EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3782786" y="5488215"/>
+          <a:ext cx="1025071" cy="1049801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28664</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1029370</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1008834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF065FDB-8550-4F50-995A-C94412055D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3793307" y="6607811"/>
+          <a:ext cx="1000706" cy="964927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26759</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1029370</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>990691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9982042-FE0F-4587-9F63-D03FE2DA1D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3791402" y="7623811"/>
+          <a:ext cx="1002611" cy="972547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>32384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1087704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A29FE2-D21C-A654-F635-AC7F07A57BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="1118234"/>
+          <a:ext cx="1047750" cy="1045795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26671</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1032456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2612A0-D0F4-FC41-5418-F08270DFF88B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5636896" y="2200275"/>
+          <a:ext cx="1011555" cy="1003881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1048418</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1070361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E1BB4F-5315-5754-FB35-3A8C68BD3A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5797827" y="3288196"/>
+          <a:ext cx="1031852" cy="1027043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31226</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1044400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1011141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0628D5A3-BFF2-57B8-F0BB-C313616FA305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5812487" y="4373218"/>
+          <a:ext cx="1013174" cy="993913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1028552</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1011409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E01CC25-7D14-E2D0-546B-B0EF0A6824C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5806440" y="5410787"/>
+          <a:ext cx="995727" cy="985617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46535</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1297</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1086584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948F5978-5661-BD04-6291-8BC426EAF6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5820150" y="6560459"/>
+          <a:ext cx="1009839" cy="1008254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>307948</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3075" name="AutoShape 3" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469D807B-8F9C-56B1-E285-AE95B2DD0CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768340" y="7620000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>992505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED14BF9-4E15-BB04-5376-B6F63C405311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5854065" y="7675245"/>
+          <a:ext cx="927735" cy="927735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>989784</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>916400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033AE69B-B387-7294-C074-6B0BC00CE1EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="2437"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5829300" y="8675915"/>
+          <a:ext cx="935355" cy="896261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>24370</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1030275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1049622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7836D69-7DE7-56B7-277E-57138D8191EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5805060" y="9671421"/>
+          <a:ext cx="1005905" cy="1001735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>59857</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1029286</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>993267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DF7C11-6C78-E608-9F8A-71A5A8321703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5833472" y="10711437"/>
+          <a:ext cx="969429" cy="960967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34434</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>36926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1028217</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1009211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="NVIDIA GeForce RTX 3090 GAMING OC 24G menggunakan kartu grafis dengan  dukungan memori 24GB GDDR6X Motherboard Desktop ATX| Alibaba.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810C1337-14BD-1F76-9A0B-FC2B0F367ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3961665" y="952791"/>
+          <a:ext cx="993783" cy="976095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>27403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1009211</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>970347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="TUF-RTX3080-10G-GAMING｜Graphics Cards｜ASUS Indonesia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ED218F-1F35-C945-FFAA-12695BA33988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4487595" y="1991018"/>
+          <a:ext cx="961731" cy="956279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41763</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>51580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1048218</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>917768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Promo Gigabyte Nvidia Geforce Rtx 3060 Rtx3060 Gaming Oc 12gb 12 GB Diskon  46% Di Seller Proton Technology Official Store - Proton Technology - Kota  Surabaya | Blibli">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B0F175-CFFE-484F-AA81-391C75BFAD2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6670" r="8743"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4481878" y="3040965"/>
+          <a:ext cx="998835" cy="866188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1050377</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1084384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2707EEDD-F125-31C0-2B71-A4F13B81B551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4447442" y="4007826"/>
+          <a:ext cx="1050670" cy="1040423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1046480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1045514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="ASUS Radeon RX 6900 XT 16GB GDDR6 ǀ Graphics Card">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA03C4A-E545-4BDC-40EA-6EDACA425910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4505740" y="5135217"/>
+          <a:ext cx="1012686" cy="1004101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>36941</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1045514</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1048088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="VGA RX 6800 XT GAMING X TRIO 16G - Toko Komputer Surabaya, Rakit PC Gaming">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B046E30-7E3F-6871-199E-D068B67A36C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4501267" y="6204335"/>
+          <a:ext cx="1008573" cy="1015622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1031471</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1048086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C1EC11-9256-132D-4DB2-44794CAC867C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4448736" y="7295030"/>
+          <a:ext cx="1009059" cy="1001133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18602</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1885</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7DB32E-52DC-28EC-83C1-6AF4A6F2C7BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4444926" y="8428729"/>
+          <a:ext cx="1047841" cy="1030942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18603</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>46729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1049543</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1047065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B71570B-07B4-3424-ECF1-2A1B7BDE147B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4444927" y="9515700"/>
+          <a:ext cx="1034750" cy="1009861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35522</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>48633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1047242</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1045732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06C1CDC-6E92-C126-6A30-5B299911B8EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4461846" y="10649398"/>
+          <a:ext cx="1021245" cy="1002814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1044600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1051448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE6884A-116C-8B3A-621A-6A7CD8E6CD88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4459940" y="11777384"/>
+          <a:ext cx="1018604" cy="1012338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>48633</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1048358</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1006848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432197EB-1E7A-B42C-F682-E0E237C2D9C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4474957" y="12868162"/>
+          <a:ext cx="988295" cy="973007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1025806</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1047863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03C4CA5-B43B-F265-C0CC-18AE54B3319A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4448736" y="13951324"/>
+          <a:ext cx="1003394" cy="986118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>46728</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1045957</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1006167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653281CC-CD6A-9225-E6D6-219177C05FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4473052" y="15047594"/>
+          <a:ext cx="995419" cy="982075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1025749</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1027132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49865BF0-8EB5-70CC-83FE-BCDD8DEF8B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4459942" y="16125265"/>
+          <a:ext cx="992131" cy="971102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1301,7 +3326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB4A840-13F0-402B-8A13-E758A36FAB75}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="141" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D16" zoomScale="141" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -1589,4 +3614,711 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936AFBD0-E38C-4DB7-A90C-7BE92D671549}">
+  <dimension ref="C1:O18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="3:15" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7">
+        <v>745000</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="3:15" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1175000</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="3:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7">
+        <v>344000</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="3:15" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7">
+        <v>402000</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="3:15" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1709000</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="3:15" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3410000</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="3:15" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1340000</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="3:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1995000</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="H13" s="11"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="H14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="H15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0B4DC8-FE1A-4D15-93A6-EFAB200B806A}">
+  <dimension ref="E3:I20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="10"/>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="10"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7">
+        <v>8168000</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="5:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="10"/>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="5:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="10"/>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7380000</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="5:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="10"/>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3160000</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="5:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="10"/>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3638000</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="5:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="10"/>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8690000</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="5:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="10"/>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4015000</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="5:9" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="10"/>
+      <c r="F13" s="2">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5964000</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="5:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="10"/>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2631000</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="5:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="10"/>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="7">
+        <v>11000000</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E16" s="10"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A155F877-12AE-45A4-8334-312D2FD6C5F8}">
+  <dimension ref="C5:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="3:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="7">
+        <v>19000000</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="3:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7">
+        <v>7500000</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="3:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4999000</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="3:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5330000</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="3:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7">
+        <v>12168000</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="3:9" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8990000</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="3:9" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5250000</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="3:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5458000</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="3:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="7">
+        <v>17699000</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="3:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="7">
+        <v>15450000</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="3:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="7">
+        <v>7790000</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="3:9" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5980000</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="3:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="7">
+        <v>9290000</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="3:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="7">
+        <v>18890000</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="3:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="7">
+        <v>16070000</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="10"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="I21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/datakomponen.xlsx
+++ b/datakomponen.xlsx
@@ -8,12 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E4B0C-E688-4D27-B1D3-E4D02A3B3D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F85ABD-7241-4FD8-BDCC-2AC8F1B2F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261A6836-0E51-45CD-8214-7DA064A0365B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{261A6836-0E51-45CD-8214-7DA064A0365B}"/>
   </bookViews>
   <sheets>
     <sheet name="processor" sheetId="1" r:id="rId1"/>
+    <sheet name="ram" sheetId="2" r:id="rId2"/>
+    <sheet name="motherboard" sheetId="3" r:id="rId3"/>
+    <sheet name="gpu" sheetId="4" r:id="rId4"/>
+    <sheet name="ssd" sheetId="5" r:id="rId5"/>
+    <sheet name="psu" sheetId="6" r:id="rId6"/>
+    <sheet name="case" sheetId="7" r:id="rId7"/>
+    <sheet name="cooler" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,14 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>Harga (USD)</t>
-  </si>
-  <si>
     <t>Model Prosesor</t>
   </si>
   <si>
@@ -97,6 +101,261 @@
   </si>
   <si>
     <t>Ryzen 5 7600X</t>
+  </si>
+  <si>
+    <t>Merk RAM</t>
+  </si>
+  <si>
+    <t>Gambar</t>
+  </si>
+  <si>
+    <t>harga</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance LPX DDR4, 2 x 16GB, 3200MHz</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance LPX DDR4, 2 x 8GB, 3200MHz</t>
+  </si>
+  <si>
+    <t>Kingston HyperX Fury DDR4, 8GB, 3200MHz</t>
+  </si>
+  <si>
+    <t>G.Skill Ripjaw+G6s V DDR4, 8GB, 3200MHz</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance DDR5, 2x16GB, 4800MHz</t>
+  </si>
+  <si>
+    <t>G.Skill Trident Z5 DDR5, 2x32GB, 6000MHz</t>
+  </si>
+  <si>
+    <t>Kingston FURY Beast DDR5, 2x16GB, 4800MHz</t>
+  </si>
+  <si>
+    <t>Kingston FURY Beast DDR5, 2x8GB, 5200MHz</t>
+  </si>
+  <si>
+    <t>Brand &amp; Model Motherboard</t>
+  </si>
+  <si>
+    <t>ASUS ROG Crosshair VIII Hero (Wi-Fi)</t>
+  </si>
+  <si>
+    <t>MSI MPG Z490 Gaming Edge WiFi</t>
+  </si>
+  <si>
+    <t>Gigabyte Z590 AORUS Master</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming B550-PLUS (Wi-Fi)</t>
+  </si>
+  <si>
+    <t>MSI MAG B550 TOMAHAWK MAX</t>
+  </si>
+  <si>
+    <t>ASUS ROG Strix Z690-E Gaming WiFi</t>
+  </si>
+  <si>
+    <t>ASUS ROG Strix B550-F Gaming (Wi-Fi)</t>
+  </si>
+  <si>
+    <t>Gigabyte Z690 AORUS Pro</t>
+  </si>
+  <si>
+    <t>ASRock B550 Steel Legend</t>
+  </si>
+  <si>
+    <t>MSI Z690 Unify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Brand &amp; Model GPU</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3090</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3080</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3070</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3060 Ti</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6900 XT</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6800 XT</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6800</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 6700 XT</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 4080</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 4070 Ti</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 4060 Ti</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7600 XT</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7800 XT</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7900 XTX</t>
+  </si>
+  <si>
+    <t>AMD Radeon RX 7900 XT</t>
+  </si>
+  <si>
+    <t>Brand &amp; Model SSD</t>
+  </si>
+  <si>
+    <t>SAMSUNG 980 PRO | M.2 NVMe - 2TB</t>
+  </si>
+  <si>
+    <t>Western Digital WD Black SN850X NVMe SSD | M.2 NVMe - 1TB</t>
+  </si>
+  <si>
+    <t>Crucial P5 Plus  | M.2 NVMe - 2TB</t>
+  </si>
+  <si>
+    <t>Kingston NV2 | M.2 NVMe - 1TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seagate FireCuda 530 | M.2 NVMe - 1TB </t>
+  </si>
+  <si>
+    <t>Corsair MP600 Pro LPX  | M.2 NVMe - 2TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrent Rocket 4 Plus | M.2 NVMe - 1TB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adata XPG Gammix S70 | M.2 NVMe - 1TB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel SSD 670p | M.2 NVMe - 1TB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNY XLR8 CS3140 | M.2 NVMe - 1TB </t>
+  </si>
+  <si>
+    <t>Brand &amp; Model PSU</t>
+  </si>
+  <si>
+    <t>Corsair HX1200 Platinum</t>
+  </si>
+  <si>
+    <t>MSI MPG A850GF</t>
+  </si>
+  <si>
+    <t>gambar</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>Corsair RM850X / RMX850 Cybenetics Gold Fully Modular ATX 3.1 PCIe 5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POWER SUPPLY PSU SEASONIC FOCUS GOLD GX-850 </t>
+  </si>
+  <si>
+    <t>Power Supply ASUS ROG STRIX 850G</t>
+  </si>
+  <si>
+    <t>Thermaltake Toughpower GF1 750W 80+</t>
+  </si>
+  <si>
+    <t>COOLER MASTER MWE GOLD 850 V2</t>
+  </si>
+  <si>
+    <t>be quiet! STRAIGHT POWER 11 850W</t>
+  </si>
+  <si>
+    <t>Brand &amp; Model Case</t>
+  </si>
+  <si>
+    <t>Corsair iCUE 5000T RGB</t>
+  </si>
+  <si>
+    <t>NZXT H9 Flow</t>
+  </si>
+  <si>
+    <t>Fractal Design Meshify 2</t>
+  </si>
+  <si>
+    <t>Lian Li PC-011 Dynamic Evo</t>
+  </si>
+  <si>
+    <t>Thermaltake Divider 370TG</t>
+  </si>
+  <si>
+    <t>Phanteks Eclipse G360A</t>
+  </si>
+  <si>
+    <t>be quiet! Dark Base 900 Rev. 2</t>
+  </si>
+  <si>
+    <t>MSI MAG Forge 100R</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming GT502</t>
+  </si>
+  <si>
+    <t>Brand &amp; Model Cooler</t>
+  </si>
+  <si>
+    <t>Noctua NH-D15 Chromax Black</t>
+  </si>
+  <si>
+    <t>be quiet! Dark Rock Pro 4</t>
+  </si>
+  <si>
+    <t>Cooler Master Hyper 212 Halo</t>
+  </si>
+  <si>
+    <t>Arctic Freezer 34 eSports</t>
+  </si>
+  <si>
+    <t>Corsair iCUE H100i Elite Capellix</t>
+  </si>
+  <si>
+    <t>Phanteks PH-TC14PE</t>
+  </si>
+  <si>
+    <t>Corsair iCUE H150i Elite Capellix</t>
+  </si>
+  <si>
+    <t>NZXT Kraken Elite 360 RBG</t>
+  </si>
+  <si>
+    <t>Cooler Master MasterLiquid ML360R</t>
+  </si>
+  <si>
+    <t>ASUS ROG Strix LC II 360</t>
+  </si>
+  <si>
+    <t>MSI MAG CoreLiquid 360R</t>
+  </si>
+  <si>
+    <t>Arctic Liquid Freezer II 360</t>
   </si>
 </sst>
 </file>
@@ -104,7 +363,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -139,7 +398,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,29 +421,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -216,7 +512,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>936406</xdr:colOff>
+      <xdr:colOff>932596</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>918077</xdr:rowOff>
     </xdr:to>
@@ -260,9 +556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>977176</xdr:colOff>
+      <xdr:colOff>973366</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>936777</xdr:rowOff>
+      <xdr:rowOff>932967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -304,7 +600,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>931716</xdr:colOff>
+      <xdr:colOff>935526</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>392</xdr:rowOff>
     </xdr:to>
@@ -348,9 +644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>974440</xdr:colOff>
+      <xdr:colOff>970630</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>972404</xdr:rowOff>
+      <xdr:rowOff>968594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -392,7 +688,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>977176</xdr:colOff>
+      <xdr:colOff>973366</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>954436</xdr:rowOff>
     </xdr:to>
@@ -436,7 +732,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>974293</xdr:colOff>
+      <xdr:colOff>970483</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>952499</xdr:rowOff>
     </xdr:to>
@@ -480,7 +776,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>977388</xdr:colOff>
+      <xdr:colOff>973578</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1903</xdr:rowOff>
     </xdr:to>
@@ -524,9 +820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>932786</xdr:colOff>
+      <xdr:colOff>936596</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>969066</xdr:rowOff>
+      <xdr:rowOff>972876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -570,7 +866,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>931559</xdr:rowOff>
+      <xdr:rowOff>935369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -614,7 +910,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>987816</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>983574</xdr:rowOff>
+      <xdr:rowOff>981669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -658,7 +954,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>988979</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>957193</xdr:rowOff>
+      <xdr:rowOff>959098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -700,9 +996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>959475</xdr:colOff>
+      <xdr:colOff>961380</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>940341</xdr:rowOff>
+      <xdr:rowOff>936531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -744,7 +1040,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>983575</xdr:colOff>
+      <xdr:colOff>981670</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>992174</xdr:rowOff>
     </xdr:to>
@@ -788,9 +1084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>963203</xdr:colOff>
+      <xdr:colOff>965108</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>956553</xdr:rowOff>
+      <xdr:rowOff>958458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -832,7 +1128,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>976610</xdr:colOff>
+      <xdr:colOff>972800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>994383</xdr:rowOff>
     </xdr:to>
@@ -876,7 +1172,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>970388</xdr:colOff>
+      <xdr:colOff>974198</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>951150</xdr:rowOff>
     </xdr:to>
@@ -920,9 +1216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>972766</xdr:colOff>
+      <xdr:colOff>968956</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>966105</xdr:rowOff>
+      <xdr:rowOff>969915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -964,9 +1260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>972766</xdr:colOff>
+      <xdr:colOff>968956</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>972766</xdr:rowOff>
+      <xdr:rowOff>968956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -995,6 +1291,4273 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1050791</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1085851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A44EF90-FDC0-A7DC-4FE7-114D77B19B40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3665220" y="220981"/>
+          <a:ext cx="1039361" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3008</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1082040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B296F508-5D69-4EE6-F8D6-94F75674596A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3665221" y="1325881"/>
+          <a:ext cx="1046947" cy="1051559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1043940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1048396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64B1985-1E9D-5C26-4B17-C365F66D2378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3817620" y="2468880"/>
+          <a:ext cx="998220" cy="985531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>934328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6DA4FF-310F-9D35-3123-7921BA4551F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="3528062"/>
+          <a:ext cx="1005840" cy="907656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1045346</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>893808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E060910-72C4-2788-DEAA-00A59EAD9500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3791858" y="4526644"/>
+          <a:ext cx="1010511" cy="857975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1050834</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1086087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC0B97A-EDF3-8352-7D2C-3968049C2EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3782786" y="5488215"/>
+          <a:ext cx="1025071" cy="1049801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28664</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1029370</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1008834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF065FDB-8550-4F50-995A-C94412055D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3793307" y="6607811"/>
+          <a:ext cx="1000706" cy="964927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26759</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1029370</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>990691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9982042-FE0F-4587-9F63-D03FE2DA1D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3791402" y="7623811"/>
+          <a:ext cx="1002611" cy="972547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>32384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1087704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A29FE2-D21C-A654-F635-AC7F07A57BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="1118234"/>
+          <a:ext cx="1047750" cy="1045795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26671</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1032456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2612A0-D0F4-FC41-5418-F08270DFF88B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5636896" y="2200275"/>
+          <a:ext cx="1011555" cy="1003881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1048418</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1070361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E1BB4F-5315-5754-FB35-3A8C68BD3A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5797827" y="3288196"/>
+          <a:ext cx="1031852" cy="1027043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31226</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1044400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1011141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0628D5A3-BFF2-57B8-F0BB-C313616FA305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5812487" y="4373218"/>
+          <a:ext cx="1013174" cy="993913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1028552</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1011409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E01CC25-7D14-E2D0-546B-B0EF0A6824C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5806440" y="5410787"/>
+          <a:ext cx="995727" cy="985617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46535</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1297</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1086584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948F5978-5661-BD04-6291-8BC426EAF6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5820150" y="6560459"/>
+          <a:ext cx="1009839" cy="1008254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>307948</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3075" name="AutoShape 3" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469D807B-8F9C-56B1-E285-AE95B2DD0CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768340" y="7620000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>992505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED14BF9-4E15-BB04-5376-B6F63C405311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5854065" y="7675245"/>
+          <a:ext cx="927735" cy="927735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>989784</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>916400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033AE69B-B387-7294-C074-6B0BC00CE1EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="2437"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5829300" y="8675915"/>
+          <a:ext cx="935355" cy="896261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>24370</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1030275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1049622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7836D69-7DE7-56B7-277E-57138D8191EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5805060" y="9671421"/>
+          <a:ext cx="1005905" cy="1001735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>59857</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1029286</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>993267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DF7C11-6C78-E608-9F8A-71A5A8321703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5833472" y="10711437"/>
+          <a:ext cx="969429" cy="960967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34434</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>36926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1028217</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1009211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="NVIDIA GeForce RTX 3090 GAMING OC 24G menggunakan kartu grafis dengan  dukungan memori 24GB GDDR6X Motherboard Desktop ATX| Alibaba.com">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810C1337-14BD-1F76-9A0B-FC2B0F367ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3961665" y="952791"/>
+          <a:ext cx="993783" cy="976095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>27403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1009211</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>970347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="TUF-RTX3080-10G-GAMING｜Graphics Cards｜ASUS Indonesia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ED218F-1F35-C945-FFAA-12695BA33988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4487595" y="1991018"/>
+          <a:ext cx="961731" cy="956279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41763</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>51580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1048218</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>917768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Promo Gigabyte Nvidia Geforce Rtx 3060 Rtx3060 Gaming Oc 12gb 12 GB Diskon  46% Di Seller Proton Technology Official Store - Proton Technology - Kota  Surabaya | Blibli">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B0F175-CFFE-484F-AA81-391C75BFAD2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6670" r="8743"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4481878" y="3040965"/>
+          <a:ext cx="998835" cy="866188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1050377</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1084384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2707EEDD-F125-31C0-2B71-A4F13B81B551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4447442" y="4007826"/>
+          <a:ext cx="1050670" cy="1040423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1046480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1045514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="ASUS Radeon RX 6900 XT 16GB GDDR6 ǀ Graphics Card">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA03C4A-E545-4BDC-40EA-6EDACA425910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4505740" y="5135217"/>
+          <a:ext cx="1012686" cy="1004101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>36941</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1045514</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1048088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="VGA RX 6800 XT GAMING X TRIO 16G - Toko Komputer Surabaya, Rakit PC Gaming">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B046E30-7E3F-6871-199E-D068B67A36C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4501267" y="6204335"/>
+          <a:ext cx="1008573" cy="1015622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1031471</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1048086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C1EC11-9256-132D-4DB2-44794CAC867C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4448736" y="7295030"/>
+          <a:ext cx="1009059" cy="1001133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18602</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1885</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7DB32E-52DC-28EC-83C1-6AF4A6F2C7BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4444926" y="8428729"/>
+          <a:ext cx="1047841" cy="1030942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18603</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>46729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1049543</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1047065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B71570B-07B4-3424-ECF1-2A1B7BDE147B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4444927" y="9515700"/>
+          <a:ext cx="1034750" cy="1009861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35522</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>48633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1047242</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1045732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06C1CDC-6E92-C126-6A30-5B299911B8EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4461846" y="10649398"/>
+          <a:ext cx="1021245" cy="1002814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1044600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1051448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE6884A-116C-8B3A-621A-6A7CD8E6CD88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4459940" y="11777384"/>
+          <a:ext cx="1018604" cy="1012338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>48633</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1048358</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1006848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432197EB-1E7A-B42C-F682-E0E237C2D9C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4474957" y="12868162"/>
+          <a:ext cx="988295" cy="973007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1025806</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1047863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03C4CA5-B43B-F265-C0CC-18AE54B3319A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4448736" y="13951324"/>
+          <a:ext cx="1003394" cy="986118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>46728</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1045957</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1006167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653281CC-CD6A-9225-E6D6-219177C05FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4473052" y="15047594"/>
+          <a:ext cx="995419" cy="982075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1025749</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1027132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49865BF0-8EB5-70CC-83FE-BCDD8DEF8B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4459942" y="16125265"/>
+          <a:ext cx="992131" cy="971102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32826</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>84407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>972532</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>970378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="SSD Samsung 980 PRO 2TB NVME M.2 PCIE 4.0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63307A5-D3DC-D65A-7A1C-626692C27C67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6209422" y="1000272"/>
+          <a:ext cx="926371" cy="895496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>969645</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>968120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Gambar Western Digital - WD BLACK SN850X NVMe SSD | M.2 NVMe Gen 4 x4 - 1TB dari Lezz Computech Kota Administrasi Jakarta Utara Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16498D73-F2E0-CF34-C629-F8EE7FF655F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7124700" y="1971676"/>
+          <a:ext cx="925830" cy="916684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>971099</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>973455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0522E748-0603-538D-FD07-E74DEB87C5D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7115175" y="2962275"/>
+          <a:ext cx="946334" cy="941070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>969645</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>935641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970C7F3C-DB64-7E0B-A203-D7FD600B5740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7124700" y="3971925"/>
+          <a:ext cx="925830" cy="914686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>973876</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>969646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Gambar Seagate FireCuda 530R / 530 Refresh SSD Internal M.2 NVMe PCIe Gen 4 - 1TB dari Seagate Indonesia Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276F1052-CB20-7C1A-F941-972DD46A4F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7105651" y="5000627"/>
+          <a:ext cx="952920" cy="925829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>973456</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1013296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Gambar CORSAIR MP600 PRO LPX 2TB PCIe Gen4 x4 NVMe M.2 SSD - PS5 Compatible - Hitam dari Corsair Official Store Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A115F2A-E4F2-8C59-3A56-6EF436661424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7105651" y="6038850"/>
+          <a:ext cx="952500" cy="971386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1013078</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>973456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Gambar Sabrent 1TB/2TB/4TB Rocket 4 Plus NVMe 4.0 Gen4 PCIe M.2 Internal SSD - 1 Terabyte dari Prima Goods ID Kota Pekanbaru Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539974DD-A245-D424-FF2B-A48D92E395CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7115175" y="7124701"/>
+          <a:ext cx="964364" cy="929640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>972018</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>967741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Gambar ADATA SSD XPG GAMMIX S70 BLADE PCIe Gen4x4 M.2 2280 1TB dari Toko Expert Komputer Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DE5BA9-1829-E54A-F8D0-181D407C091A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7124701" y="8134351"/>
+          <a:ext cx="912962" cy="929640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>935356</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>929827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Gambar INTEL 670P 1TB M.2 NVME Gen3x4 SSD dari distributorkomputer Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0335CAFE-CAD4-FD7D-EAE9-6633BBB3258B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7000876" y="9182100"/>
+          <a:ext cx="914400" cy="882202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11431</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>971362</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1007745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Gambar PNY XLR8 CS3140 M.2 NVMe SSD | SSD M.2 NVMe Gen 4 x4 - 1 TB dari RedTeknologi-Redcom Kota Administrasi Jakarta Barat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29249D9E-917A-CD37-A780-83455514261C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7196002" y="9794148"/>
+          <a:ext cx="959931" cy="956311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>968749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6695180E-4719-3629-DBA1-87B7B4C91400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4000500" y="767716"/>
+          <a:ext cx="933449" cy="917313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>955217</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>931545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Gambar POWER SUPPLY PSU SEASONIC FOCUS GOLD GX-850 WHITE 850W 80 GOLD MODULAR dari SOS SPORT ONLINE SHOP Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F732E7F-C317-E1EE-7F34-847CDA946AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4524375" y="1762125"/>
+          <a:ext cx="898067" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45867</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>64038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>950786</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>969352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Gambar Power Supply ASUS ROG STRIX 850G - 850W 80+ GOLD FULLY MODULAR dari Toko Expert Komputer Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A903479C-3813-7240-7753-657DADAF2709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4507963" y="2767673"/>
+          <a:ext cx="904919" cy="897694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1044553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Gambar Thermaltake Toughpower GF1 750W 80+ Gold Full Modular - PSU dari J&amp;J online Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9EFECF-7CEB-1B2C-F52E-310EC390067B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4103370" y="3564255"/>
+          <a:ext cx="965835" cy="995023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>967796</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>974113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Gambar COOLER MASTER MWE GOLD 850 V2 - 850W 80+ GOLD FULLY MODULAR dari Toko Expert Komputer Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181262C2-5AE2-38A3-C73D-1D2EDB20FE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4105604" y="4644260"/>
+          <a:ext cx="945330" cy="937457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21982</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>972296</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>975068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Gambar Corsair HX1200 Watt 80 PLUS Platinum Certified Fully Modular dari RedTeknologi-Redcom Kota Administrasi Jakarta Barat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032F9CBF-5733-BF87-DF5E-5E19B3AF0DEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4095751" y="6667499"/>
+          <a:ext cx="954124" cy="927004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>55243</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>972862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9F2BC8-3DB6-CD0C-078D-CDA6990A1DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4131943" y="5661659"/>
+          <a:ext cx="912497" cy="921428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>970503</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>954405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B179A2C-B425-BE62-D841-3B467FA3F9EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4114801" y="7658100"/>
+          <a:ext cx="932402" cy="925830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>972868</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>987592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7F2B63-F61F-23BE-E825-248C99DC563A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4484076" y="1502019"/>
+          <a:ext cx="943268" cy="943631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>968699</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>932131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216C05E3-4458-B116-095D-E6A96B8632BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4703885" y="2469173"/>
+          <a:ext cx="937193" cy="928614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45866</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>974187</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>972021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310E96A8-3385-73D4-0492-812A87130517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4727770" y="3482195"/>
+          <a:ext cx="928321" cy="918533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36636</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>43963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>972237</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>954406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63C8762-9A49-80D2-7CB4-5D07BE957B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4718540" y="4498732"/>
+          <a:ext cx="922266" cy="908538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>968486</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>988198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C492C4F-8EDD-B328-0311-A7840FA9DD97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4729370" y="5507934"/>
+          <a:ext cx="942975" cy="940408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33117</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>32825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990397</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>974187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Gambar PHANTEKS ECLIPSE G360A BLACK - ATX CASE dari distributorkomputer Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EB42FF-AF6C-2651-9620-3FC745D110D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4715021" y="6546460"/>
+          <a:ext cx="957280" cy="947077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>968608</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>972212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DA8F70-3A86-E7F1-DEAB-A1A12960AE77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4721087" y="7545457"/>
+          <a:ext cx="939950" cy="939744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>993673</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>973538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB6E61F-57BC-2C74-C104-E9D0A7896B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4721087" y="8564217"/>
+          <a:ext cx="968825" cy="964593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>989200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>969066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4193C51D-236C-E058-FE12-EC116823F7F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4712804" y="9595071"/>
+          <a:ext cx="972635" cy="960783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>968462</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>973455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AFB93A-2342-19AC-65EC-A7A532B808D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4646295" y="1135380"/>
+          <a:ext cx="937982" cy="920115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>935151</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>929640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D47A8C1-200C-5582-FC2A-4511E3FDEC86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4657726" y="2095500"/>
+          <a:ext cx="897050" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>936997</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>929640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49915ACF-0F5C-1325-654C-197BBC96BC5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4653915" y="3076575"/>
+          <a:ext cx="898897" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>954405</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>931928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13664FD-C283-97B8-37F9-B0BEF8E8D7B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4648200" y="4067175"/>
+          <a:ext cx="925830" cy="912878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>969559</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>910590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896565F8-32CD-AB83-29D7-EA86D03FF73F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4657726" y="5019675"/>
+          <a:ext cx="921933" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43815</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>972523</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>950595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4AA959-6B6B-13FB-6363-1BC075790A60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4663440" y="6010275"/>
+          <a:ext cx="915373" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>931545</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>917747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54131A3-6EA0-6986-728D-1562157D942D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4676775" y="7019926"/>
+          <a:ext cx="887730" cy="879646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>935760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B6FBC7-C2AA-C2B4-91EF-371FEFAFB20E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4657725" y="7943851"/>
+          <a:ext cx="901470" cy="895349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>937259</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>917541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F9AB78-FC3E-AEF9-86D4-C6F4EC97EB16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4638675" y="8921115"/>
+          <a:ext cx="914399" cy="902301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>929640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>935298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9DA429-1285-8E52-DC4A-63E5419D3731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4648200" y="9867900"/>
+          <a:ext cx="901065" cy="899103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>918209</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>912768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC758A9-EE2C-DF4D-3B0F-6221D637FA4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4653915" y="10856594"/>
+          <a:ext cx="883919" cy="876574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>972963</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>931545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24CDE78-EF84-78E3-1814-6748E0925A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4667251" y="11820525"/>
+          <a:ext cx="915812" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1301,8 +5864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB4A840-13F0-402B-8A13-E758A36FAB75}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="141" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,12 +5885,14 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="6:10" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1335,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="7">
         <v>5535000</v>
@@ -1348,7 +5913,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="7">
         <v>4395000</v>
@@ -1361,7 +5926,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7">
         <v>2990000</v>
@@ -1374,7 +5939,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="7">
         <v>4599000</v>
@@ -1387,7 +5952,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="7">
         <v>4199000</v>
@@ -1400,7 +5965,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="7">
         <v>3000000</v>
@@ -1413,7 +5978,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="7">
         <v>5900000</v>
@@ -1426,7 +5991,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="7">
         <v>3990000</v>
@@ -1439,7 +6004,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="7">
         <v>3299000</v>
@@ -1452,7 +6017,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>3600000</v>
@@ -1465,7 +6030,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="7">
         <v>2400000</v>
@@ -1478,7 +6043,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>1499000</v>
@@ -1491,7 +6056,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7">
         <v>5740000</v>
@@ -1504,7 +6069,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>2750000</v>
@@ -1517,7 +6082,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>2000000</v>
@@ -1530,7 +6095,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
         <v>6881000</v>
@@ -1543,7 +6108,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>5687000</v>
@@ -1556,7 +6121,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>3920000</v>
@@ -1589,4 +6154,1365 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936AFBD0-E38C-4DB7-A90C-7BE92D671549}">
+  <dimension ref="C1:O18"/>
+  <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="3:15" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7">
+        <v>745000</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="3:15" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1175000</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="3:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7">
+        <v>344000</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="3:15" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>402000</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="3:15" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1709000</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="3:15" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3410000</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="3:15" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1340000</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="3:15" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1995000</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="H13" s="11"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="H14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="H15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0B4DC8-FE1A-4D15-93A6-EFAB200B806A}">
+  <dimension ref="E3:I20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="10"/>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="10"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="7">
+        <v>8168000</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="5:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="10"/>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="5:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="10"/>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7380000</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="5:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="10"/>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3160000</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="5:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="10"/>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3638000</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="5:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="10"/>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8690000</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="5:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="10"/>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4015000</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="5:9" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="10"/>
+      <c r="F13" s="2">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5964000</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="5:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="10"/>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2631000</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="5:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="10"/>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="7">
+        <v>11000000</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E16" s="10"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A155F877-12AE-45A4-8334-312D2FD6C5F8}">
+  <dimension ref="C5:I21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="3:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7">
+        <v>19000000</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="3:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="7">
+        <v>7500000</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="3:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4999000</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="3:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5330000</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="3:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7">
+        <v>12168000</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="3:9" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8990000</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="3:9" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5250000</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="3:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5458000</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="3:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7">
+        <v>17699000</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="3:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7">
+        <v>15450000</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="3:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="7">
+        <v>7790000</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="3:9" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5980000</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="3:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="7">
+        <v>9290000</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="3:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="7">
+        <v>18890000</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="3:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="7">
+        <v>16070000</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="10"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="I21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CEBC92-D1A6-4AF8-91D5-42DC8E705EAB}">
+  <dimension ref="C3:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2725000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1729000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5685000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="12">
+        <v>995000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1873000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2999000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2699000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1295000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="12">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1739000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8622CA4-8ED9-41B4-8173-E282592DC610}">
+  <dimension ref="C3:H12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="3:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2680000</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="3:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2560000</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="3:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2888000</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="3:8" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1875000</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="3:8" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1750000</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="3:8" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2932000</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="3:8" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="6">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3950000</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="3:8" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2094000</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="H12" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA0C69B-4D13-43B3-9D22-7D850F574CC4}">
+  <dimension ref="D7:I16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="4:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5558000</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="4:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2390000</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="4:9" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1406000</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="4:9" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2725000</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="4:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1830000</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="4:9" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1549000</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="4:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4150000</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="4:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="7">
+        <v>771000</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="4:9" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2504000</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="I16" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA598E4-EF52-45B9-A220-B353FCFF7E73}">
+  <dimension ref="D5:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="4:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1990000</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="4:10" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1320000</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="4:10" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="7">
+        <v>479000</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="4:10" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="7">
+        <v>512000</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="4:10" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2329000</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="4:10" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="7">
+        <v>950000</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="4:10" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2735000</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="10"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="4:10" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4850000</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="10"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="4:10" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1160000</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="10"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="4:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3160000</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="10"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="4:10" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1899000</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="4:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="2">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1330000</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="10"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E18" s="10"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="J18" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/datakomponen.xlsx
+++ b/datakomponen.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B19DB9-94F7-41F1-9293-9288999B5934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F85ABD-7241-4FD8-BDCC-2AC8F1B2F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{261A6836-0E51-45CD-8214-7DA064A0365B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{261A6836-0E51-45CD-8214-7DA064A0365B}"/>
   </bookViews>
   <sheets>
     <sheet name="processor" sheetId="1" r:id="rId1"/>
     <sheet name="ram" sheetId="2" r:id="rId2"/>
     <sheet name="motherboard" sheetId="3" r:id="rId3"/>
     <sheet name="gpu" sheetId="4" r:id="rId4"/>
+    <sheet name="ssd" sheetId="5" r:id="rId5"/>
+    <sheet name="psu" sheetId="6" r:id="rId6"/>
+    <sheet name="case" sheetId="7" r:id="rId7"/>
+    <sheet name="cooler" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,14 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>Harga (USD)</t>
-  </si>
-  <si>
     <t>Model Prosesor</t>
   </si>
   <si>
@@ -220,6 +221,141 @@
   </si>
   <si>
     <t>AMD Radeon RX 7900 XT</t>
+  </si>
+  <si>
+    <t>Brand &amp; Model SSD</t>
+  </si>
+  <si>
+    <t>SAMSUNG 980 PRO | M.2 NVMe - 2TB</t>
+  </si>
+  <si>
+    <t>Western Digital WD Black SN850X NVMe SSD | M.2 NVMe - 1TB</t>
+  </si>
+  <si>
+    <t>Crucial P5 Plus  | M.2 NVMe - 2TB</t>
+  </si>
+  <si>
+    <t>Kingston NV2 | M.2 NVMe - 1TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seagate FireCuda 530 | M.2 NVMe - 1TB </t>
+  </si>
+  <si>
+    <t>Corsair MP600 Pro LPX  | M.2 NVMe - 2TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrent Rocket 4 Plus | M.2 NVMe - 1TB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adata XPG Gammix S70 | M.2 NVMe - 1TB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel SSD 670p | M.2 NVMe - 1TB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNY XLR8 CS3140 | M.2 NVMe - 1TB </t>
+  </si>
+  <si>
+    <t>Brand &amp; Model PSU</t>
+  </si>
+  <si>
+    <t>Corsair HX1200 Platinum</t>
+  </si>
+  <si>
+    <t>MSI MPG A850GF</t>
+  </si>
+  <si>
+    <t>gambar</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>Corsair RM850X / RMX850 Cybenetics Gold Fully Modular ATX 3.1 PCIe 5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POWER SUPPLY PSU SEASONIC FOCUS GOLD GX-850 </t>
+  </si>
+  <si>
+    <t>Power Supply ASUS ROG STRIX 850G</t>
+  </si>
+  <si>
+    <t>Thermaltake Toughpower GF1 750W 80+</t>
+  </si>
+  <si>
+    <t>COOLER MASTER MWE GOLD 850 V2</t>
+  </si>
+  <si>
+    <t>be quiet! STRAIGHT POWER 11 850W</t>
+  </si>
+  <si>
+    <t>Brand &amp; Model Case</t>
+  </si>
+  <si>
+    <t>Corsair iCUE 5000T RGB</t>
+  </si>
+  <si>
+    <t>NZXT H9 Flow</t>
+  </si>
+  <si>
+    <t>Fractal Design Meshify 2</t>
+  </si>
+  <si>
+    <t>Lian Li PC-011 Dynamic Evo</t>
+  </si>
+  <si>
+    <t>Thermaltake Divider 370TG</t>
+  </si>
+  <si>
+    <t>Phanteks Eclipse G360A</t>
+  </si>
+  <si>
+    <t>be quiet! Dark Base 900 Rev. 2</t>
+  </si>
+  <si>
+    <t>MSI MAG Forge 100R</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming GT502</t>
+  </si>
+  <si>
+    <t>Brand &amp; Model Cooler</t>
+  </si>
+  <si>
+    <t>Noctua NH-D15 Chromax Black</t>
+  </si>
+  <si>
+    <t>be quiet! Dark Rock Pro 4</t>
+  </si>
+  <si>
+    <t>Cooler Master Hyper 212 Halo</t>
+  </si>
+  <si>
+    <t>Arctic Freezer 34 eSports</t>
+  </si>
+  <si>
+    <t>Corsair iCUE H100i Elite Capellix</t>
+  </si>
+  <si>
+    <t>Phanteks PH-TC14PE</t>
+  </si>
+  <si>
+    <t>Corsair iCUE H150i Elite Capellix</t>
+  </si>
+  <si>
+    <t>NZXT Kraken Elite 360 RBG</t>
+  </si>
+  <si>
+    <t>Cooler Master MasterLiquid ML360R</t>
+  </si>
+  <si>
+    <t>ASUS ROG Strix LC II 360</t>
+  </si>
+  <si>
+    <t>MSI MAG CoreLiquid 360R</t>
+  </si>
+  <si>
+    <t>Arctic Liquid Freezer II 360</t>
   </si>
 </sst>
 </file>
@@ -303,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -338,6 +474,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -373,7 +512,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>936406</xdr:colOff>
+      <xdr:colOff>932596</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>918077</xdr:rowOff>
     </xdr:to>
@@ -417,9 +556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>977176</xdr:colOff>
+      <xdr:colOff>973366</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>936777</xdr:rowOff>
+      <xdr:rowOff>932967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -461,7 +600,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>931716</xdr:colOff>
+      <xdr:colOff>935526</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>392</xdr:rowOff>
     </xdr:to>
@@ -505,9 +644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>974440</xdr:colOff>
+      <xdr:colOff>970630</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>972404</xdr:rowOff>
+      <xdr:rowOff>968594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -549,7 +688,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>977176</xdr:colOff>
+      <xdr:colOff>973366</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>954436</xdr:rowOff>
     </xdr:to>
@@ -593,7 +732,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>974293</xdr:colOff>
+      <xdr:colOff>970483</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>952499</xdr:rowOff>
     </xdr:to>
@@ -637,7 +776,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>977388</xdr:colOff>
+      <xdr:colOff>973578</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1903</xdr:rowOff>
     </xdr:to>
@@ -681,9 +820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>932786</xdr:colOff>
+      <xdr:colOff>936596</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>969066</xdr:rowOff>
+      <xdr:rowOff>972876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -727,7 +866,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>931559</xdr:rowOff>
+      <xdr:rowOff>935369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -771,7 +910,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>987816</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>983574</xdr:rowOff>
+      <xdr:rowOff>981669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -815,7 +954,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>988979</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>957193</xdr:rowOff>
+      <xdr:rowOff>959098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -857,9 +996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>959475</xdr:colOff>
+      <xdr:colOff>961380</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>940341</xdr:rowOff>
+      <xdr:rowOff>936531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -901,7 +1040,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>983575</xdr:colOff>
+      <xdr:colOff>981670</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>992174</xdr:rowOff>
     </xdr:to>
@@ -945,9 +1084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>963203</xdr:colOff>
+      <xdr:colOff>965108</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>956553</xdr:rowOff>
+      <xdr:rowOff>958458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -989,7 +1128,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>976610</xdr:colOff>
+      <xdr:colOff>972800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>994383</xdr:rowOff>
     </xdr:to>
@@ -1033,7 +1172,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>970388</xdr:colOff>
+      <xdr:colOff>974198</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>951150</xdr:rowOff>
     </xdr:to>
@@ -1077,9 +1216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>972766</xdr:colOff>
+      <xdr:colOff>968956</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>966105</xdr:rowOff>
+      <xdr:rowOff>969915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1121,9 +1260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>972766</xdr:colOff>
+      <xdr:colOff>968956</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>972766</xdr:rowOff>
+      <xdr:rowOff>968956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3006,6 +3145,2405 @@
         <a:xfrm>
           <a:off x="4459942" y="16125265"/>
           <a:ext cx="992131" cy="971102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32826</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>84407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>972532</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>970378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="SSD Samsung 980 PRO 2TB NVME M.2 PCIE 4.0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63307A5-D3DC-D65A-7A1C-626692C27C67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6209422" y="1000272"/>
+          <a:ext cx="926371" cy="895496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>969645</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>968120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Gambar Western Digital - WD BLACK SN850X NVMe SSD | M.2 NVMe Gen 4 x4 - 1TB dari Lezz Computech Kota Administrasi Jakarta Utara Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16498D73-F2E0-CF34-C629-F8EE7FF655F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7124700" y="1971676"/>
+          <a:ext cx="925830" cy="916684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>971099</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>973455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0522E748-0603-538D-FD07-E74DEB87C5D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7115175" y="2962275"/>
+          <a:ext cx="946334" cy="941070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>969645</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>935641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970C7F3C-DB64-7E0B-A203-D7FD600B5740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7124700" y="3971925"/>
+          <a:ext cx="925830" cy="914686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>973876</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>969646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Gambar Seagate FireCuda 530R / 530 Refresh SSD Internal M.2 NVMe PCIe Gen 4 - 1TB dari Seagate Indonesia Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276F1052-CB20-7C1A-F941-972DD46A4F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7105651" y="5000627"/>
+          <a:ext cx="952920" cy="925829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>973456</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1013296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Gambar CORSAIR MP600 PRO LPX 2TB PCIe Gen4 x4 NVMe M.2 SSD - PS5 Compatible - Hitam dari Corsair Official Store Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A115F2A-E4F2-8C59-3A56-6EF436661424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7105651" y="6038850"/>
+          <a:ext cx="952500" cy="971386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1013078</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>973456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Gambar Sabrent 1TB/2TB/4TB Rocket 4 Plus NVMe 4.0 Gen4 PCIe M.2 Internal SSD - 1 Terabyte dari Prima Goods ID Kota Pekanbaru Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539974DD-A245-D424-FF2B-A48D92E395CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7115175" y="7124701"/>
+          <a:ext cx="964364" cy="929640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>972018</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>967741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Gambar ADATA SSD XPG GAMMIX S70 BLADE PCIe Gen4x4 M.2 2280 1TB dari Toko Expert Komputer Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DE5BA9-1829-E54A-F8D0-181D407C091A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7124701" y="8134351"/>
+          <a:ext cx="912962" cy="929640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>935356</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>929827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Gambar INTEL 670P 1TB M.2 NVME Gen3x4 SSD dari distributorkomputer Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0335CAFE-CAD4-FD7D-EAE9-6633BBB3258B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7000876" y="9182100"/>
+          <a:ext cx="914400" cy="882202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11431</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>971362</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1007745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Gambar PNY XLR8 CS3140 M.2 NVMe SSD | SSD M.2 NVMe Gen 4 x4 - 1 TB dari RedTeknologi-Redcom Kota Administrasi Jakarta Barat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29249D9E-917A-CD37-A780-83455514261C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7196002" y="9794148"/>
+          <a:ext cx="959931" cy="956311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>968749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6695180E-4719-3629-DBA1-87B7B4C91400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4000500" y="767716"/>
+          <a:ext cx="933449" cy="917313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>955217</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>931545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Gambar POWER SUPPLY PSU SEASONIC FOCUS GOLD GX-850 WHITE 850W 80 GOLD MODULAR dari SOS SPORT ONLINE SHOP Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F732E7F-C317-E1EE-7F34-847CDA946AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4524375" y="1762125"/>
+          <a:ext cx="898067" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45867</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>64038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>950786</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>969352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Gambar Power Supply ASUS ROG STRIX 850G - 850W 80+ GOLD FULLY MODULAR dari Toko Expert Komputer Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A903479C-3813-7240-7753-657DADAF2709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4507963" y="2767673"/>
+          <a:ext cx="904919" cy="897694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1044553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Gambar Thermaltake Toughpower GF1 750W 80+ Gold Full Modular - PSU dari J&amp;J online Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9EFECF-7CEB-1B2C-F52E-310EC390067B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4103370" y="3564255"/>
+          <a:ext cx="965835" cy="995023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>967796</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>974113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Gambar COOLER MASTER MWE GOLD 850 V2 - 850W 80+ GOLD FULLY MODULAR dari Toko Expert Komputer Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181262C2-5AE2-38A3-C73D-1D2EDB20FE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4105604" y="4644260"/>
+          <a:ext cx="945330" cy="937457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21982</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>972296</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>975068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Gambar Corsair HX1200 Watt 80 PLUS Platinum Certified Fully Modular dari RedTeknologi-Redcom Kota Administrasi Jakarta Barat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032F9CBF-5733-BF87-DF5E-5E19B3AF0DEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4095751" y="6667499"/>
+          <a:ext cx="954124" cy="927004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>55243</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>972862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9F2BC8-3DB6-CD0C-078D-CDA6990A1DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4131943" y="5661659"/>
+          <a:ext cx="912497" cy="921428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>970503</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>954405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B179A2C-B425-BE62-D841-3B467FA3F9EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4114801" y="7658100"/>
+          <a:ext cx="932402" cy="925830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>972868</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>987592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7F2B63-F61F-23BE-E825-248C99DC563A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4484076" y="1502019"/>
+          <a:ext cx="943268" cy="943631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>968699</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>932131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216C05E3-4458-B116-095D-E6A96B8632BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4703885" y="2469173"/>
+          <a:ext cx="937193" cy="928614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45866</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>974187</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>972021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310E96A8-3385-73D4-0492-812A87130517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4727770" y="3482195"/>
+          <a:ext cx="928321" cy="918533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36636</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>43963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>972237</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>954406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63C8762-9A49-80D2-7CB4-5D07BE957B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4718540" y="4498732"/>
+          <a:ext cx="922266" cy="908538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>968486</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>988198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C492C4F-8EDD-B328-0311-A7840FA9DD97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4729370" y="5507934"/>
+          <a:ext cx="942975" cy="940408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33117</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>32825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990397</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>974187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Gambar PHANTEKS ECLIPSE G360A BLACK - ATX CASE dari distributorkomputer Kota Administrasi Jakarta Pusat Tokopedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EB42FF-AF6C-2651-9620-3FC745D110D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4715021" y="6546460"/>
+          <a:ext cx="957280" cy="947077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>968608</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>972212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DA8F70-3A86-E7F1-DEAB-A1A12960AE77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4721087" y="7545457"/>
+          <a:ext cx="939950" cy="939744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>993673</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>973538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB6E61F-57BC-2C74-C104-E9D0A7896B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4721087" y="8564217"/>
+          <a:ext cx="968825" cy="964593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>989200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>969066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4193C51D-236C-E058-FE12-EC116823F7F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4712804" y="9595071"/>
+          <a:ext cx="972635" cy="960783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>968462</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>973455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AFB93A-2342-19AC-65EC-A7A532B808D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4646295" y="1135380"/>
+          <a:ext cx="937982" cy="920115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>935151</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>929640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D47A8C1-200C-5582-FC2A-4511E3FDEC86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4657726" y="2095500"/>
+          <a:ext cx="897050" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>936997</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>929640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49915ACF-0F5C-1325-654C-197BBC96BC5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4653915" y="3076575"/>
+          <a:ext cx="898897" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>954405</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>931928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13664FD-C283-97B8-37F9-B0BEF8E8D7B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4648200" y="4067175"/>
+          <a:ext cx="925830" cy="912878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>969559</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>910590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896565F8-32CD-AB83-29D7-EA86D03FF73F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4657726" y="5019675"/>
+          <a:ext cx="921933" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43815</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>972523</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>950595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4AA959-6B6B-13FB-6363-1BC075790A60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4663440" y="6010275"/>
+          <a:ext cx="915373" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>931545</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>917747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54131A3-6EA0-6986-728D-1562157D942D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4676775" y="7019926"/>
+          <a:ext cx="887730" cy="879646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>935760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B6FBC7-C2AA-C2B4-91EF-371FEFAFB20E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4657725" y="7943851"/>
+          <a:ext cx="901470" cy="895349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>937259</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>917541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F9AB78-FC3E-AEF9-86D4-C6F4EC97EB16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4638675" y="8921115"/>
+          <a:ext cx="914399" cy="902301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>929640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>935298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9DA429-1285-8E52-DC4A-63E5419D3731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4648200" y="9867900"/>
+          <a:ext cx="901065" cy="899103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>918209</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>912768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC758A9-EE2C-DF4D-3B0F-6221D637FA4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4653915" y="10856594"/>
+          <a:ext cx="883919" cy="876574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>972963</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>931545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="product-image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24CDE78-EF84-78E3-1814-6748E0925A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4667251" y="11820525"/>
+          <a:ext cx="915812" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3326,8 +5864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB4A840-13F0-402B-8A13-E758A36FAB75}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScale="141" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3347,12 +5885,14 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="6:10" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3360,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="7">
         <v>5535000</v>
@@ -3373,7 +5913,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="7">
         <v>4395000</v>
@@ -3386,7 +5926,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7">
         <v>2990000</v>
@@ -3399,7 +5939,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="7">
         <v>4599000</v>
@@ -3412,7 +5952,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="7">
         <v>4199000</v>
@@ -3425,7 +5965,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="7">
         <v>3000000</v>
@@ -3438,7 +5978,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="7">
         <v>5900000</v>
@@ -3451,7 +5991,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="7">
         <v>3990000</v>
@@ -3464,7 +6004,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="7">
         <v>3299000</v>
@@ -3477,7 +6017,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>3600000</v>
@@ -3490,7 +6030,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="7">
         <v>2400000</v>
@@ -3503,7 +6043,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>1499000</v>
@@ -3516,7 +6056,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7">
         <v>5740000</v>
@@ -3529,7 +6069,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>2750000</v>
@@ -3542,7 +6082,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>2000000</v>
@@ -3555,7 +6095,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
         <v>6881000</v>
@@ -3568,7 +6108,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>5687000</v>
@@ -3581,7 +6121,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>3920000</v>
@@ -3620,7 +6160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936AFBD0-E38C-4DB7-A90C-7BE92D671549}">
   <dimension ref="C1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -3639,13 +6179,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G1" s="9"/>
     </row>
@@ -3654,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="7">
         <v>745000</v>
@@ -3668,7 +6208,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="7">
         <v>1175000</v>
@@ -3686,7 +6226,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7">
         <v>344000</v>
@@ -3704,7 +6244,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7">
         <v>402000</v>
@@ -3722,7 +6262,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7">
         <v>1709000</v>
@@ -3740,7 +6280,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="7">
         <v>3410000</v>
@@ -3758,7 +6298,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="7">
         <v>1340000</v>
@@ -3776,7 +6316,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="7">
         <v>1995000</v>
@@ -3877,7 +6417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0B4DC8-FE1A-4D15-93A6-EFAB200B806A}">
   <dimension ref="E3:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -3903,16 +6443,16 @@
     <row r="5" spans="5:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E5" s="10"/>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="5:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
@@ -3921,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>8168000</v>
@@ -3934,7 +6474,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>4000000</v>
@@ -3947,7 +6487,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>7380000</v>
@@ -3960,7 +6500,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7">
         <v>3160000</v>
@@ -3973,7 +6513,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>3638000</v>
@@ -3986,7 +6526,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>8690000</v>
@@ -3999,7 +6539,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="7">
         <v>4015000</v>
@@ -4012,7 +6552,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>5964000</v>
@@ -4025,7 +6565,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>2631000</v>
@@ -4038,7 +6578,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="7">
         <v>11000000</v>
@@ -4047,9 +6587,9 @@
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E16" s="10"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="10"/>
@@ -4073,8 +6613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A155F877-12AE-45A4-8334-312D2FD6C5F8}">
   <dimension ref="C5:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4086,16 +6626,16 @@
   <sheetData>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="9"/>
       <c r="I5" s="9"/>
@@ -4105,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="7">
         <v>19000000</v>
@@ -4119,7 +6659,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="7">
         <v>7500000</v>
@@ -4133,7 +6673,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="7">
         <v>4999000</v>
@@ -4147,7 +6687,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="7">
         <v>5330000</v>
@@ -4161,7 +6701,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7">
         <v>12168000</v>
@@ -4175,7 +6715,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7">
         <v>8990000</v>
@@ -4189,7 +6729,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="7">
         <v>5250000</v>
@@ -4203,7 +6743,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="7">
         <v>5458000</v>
@@ -4217,7 +6757,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7">
         <v>17699000</v>
@@ -4231,7 +6771,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="7">
         <v>15450000</v>
@@ -4245,7 +6785,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="7">
         <v>7790000</v>
@@ -4259,7 +6799,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="7">
         <v>5980000</v>
@@ -4273,7 +6813,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="7">
         <v>9290000</v>
@@ -4287,7 +6827,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="7">
         <v>18890000</v>
@@ -4301,7 +6841,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7">
         <v>16070000</v>
@@ -4321,4 +6861,658 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CEBC92-D1A6-4AF8-91D5-42DC8E705EAB}">
+  <dimension ref="C3:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2725000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1729000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5685000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="12">
+        <v>995000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1873000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2999000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2699000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1295000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="12">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1739000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8622CA4-8ED9-41B4-8173-E282592DC610}">
+  <dimension ref="C3:H12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="3:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2680000</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="3:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2560000</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="3:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2888000</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="3:8" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1875000</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="3:8" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1750000</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="3:8" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2932000</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="3:8" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="6">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3950000</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="3:8" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2094000</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="H12" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA0C69B-4D13-43B3-9D22-7D850F574CC4}">
+  <dimension ref="D7:I16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="4:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5558000</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="4:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2390000</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="4:9" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1406000</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="4:9" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2725000</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="4:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1830000</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="4:9" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1549000</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="4:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4150000</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="4:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="7">
+        <v>771000</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="4:9" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2504000</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="I16" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA598E4-EF52-45B9-A220-B353FCFF7E73}">
+  <dimension ref="D5:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="4:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1990000</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="4:10" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1320000</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="4:10" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="7">
+        <v>479000</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="4:10" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="7">
+        <v>512000</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="4:10" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2329000</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="4:10" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="7">
+        <v>950000</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="4:10" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2735000</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="10"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="4:10" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4850000</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="10"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="4:10" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1160000</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="10"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="4:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3160000</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="10"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="4:10" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1899000</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="4:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="2">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1330000</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="10"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E18" s="10"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="J18" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>